--- a/Code/Results/Cases/Case_2_75/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_75/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8167372573269915</v>
+        <v>0.2648451569472172</v>
       </c>
       <c r="C2">
-        <v>0.1164679650572822</v>
+        <v>0.06939515048310341</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4901894367919226</v>
+        <v>0.5631802312988512</v>
       </c>
       <c r="F2">
-        <v>1.328633487492951</v>
+        <v>2.073558812778955</v>
       </c>
       <c r="G2">
-        <v>0.2213079704880982</v>
+        <v>0.4535287523932894</v>
       </c>
       <c r="H2">
-        <v>0.2360003849858501</v>
+        <v>0.621328140970526</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02834104194762865</v>
+        <v>0.04456917779960357</v>
       </c>
       <c r="K2">
-        <v>0.8371862590209673</v>
+        <v>0.2577744102338499</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6642104732377163</v>
+        <v>0.4017623662331715</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9114474350690074</v>
+        <v>2.105377801788336</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7132382007035005</v>
+        <v>0.2321411886632347</v>
       </c>
       <c r="C3">
-        <v>0.1092230924457454</v>
+        <v>0.06688639323184731</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.4392469995101749</v>
+        <v>0.5528305900229853</v>
       </c>
       <c r="F3">
-        <v>1.238201169144276</v>
+        <v>2.065961215728322</v>
       </c>
       <c r="G3">
-        <v>0.2244633333860264</v>
+        <v>0.4590390420931456</v>
       </c>
       <c r="H3">
-        <v>0.2433929234552039</v>
+        <v>0.6274776546296081</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02859290482333421</v>
+        <v>0.04471664244262641</v>
       </c>
       <c r="K3">
-        <v>0.7373608124630096</v>
+        <v>0.2252679536051119</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5788954379989377</v>
+        <v>0.3786317057845139</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9332739666253929</v>
+        <v>2.129708494002685</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.649660814623445</v>
+        <v>0.212012630724729</v>
       </c>
       <c r="C4">
-        <v>0.1047925661396292</v>
+        <v>0.06534668349953421</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4084723405927946</v>
+        <v>0.5467358778822273</v>
       </c>
       <c r="F4">
-        <v>1.184943034625135</v>
+        <v>2.062461071519834</v>
       </c>
       <c r="G4">
-        <v>0.2271322984297868</v>
+        <v>0.4627584387925623</v>
       </c>
       <c r="H4">
-        <v>0.2483928876877783</v>
+        <v>0.6315253166097463</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02876737278995201</v>
+        <v>0.04481790224832416</v>
       </c>
       <c r="K4">
-        <v>0.6759884559819938</v>
+        <v>0.2052215070626033</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5267926489185726</v>
+        <v>0.3645554958694888</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9491835790141465</v>
+        <v>2.145921564995248</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6237385561982194</v>
+        <v>0.2037984957325136</v>
       </c>
       <c r="C5">
-        <v>0.1029911572540883</v>
+        <v>0.06471947030497205</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3960480113583245</v>
+        <v>0.5443177112772162</v>
       </c>
       <c r="F5">
-        <v>1.163776715092212</v>
+        <v>2.061327672639166</v>
       </c>
       <c r="G5">
-        <v>0.2283957277166593</v>
+        <v>0.4643585217900252</v>
       </c>
       <c r="H5">
-        <v>0.2505428153013014</v>
+        <v>0.6332431509224179</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0288433859593038</v>
+        <v>0.04486186884625099</v>
       </c>
       <c r="K5">
-        <v>0.6509528532472331</v>
+        <v>0.1970309852239041</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5056210360264544</v>
+        <v>0.3588513314354103</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9562729151755747</v>
+        <v>2.152848683791177</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6194331518164233</v>
+        <v>0.2024338609564325</v>
       </c>
       <c r="C6">
-        <v>0.1026922685374316</v>
+        <v>0.06461533777898154</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.393991715381425</v>
+        <v>0.5439201341323709</v>
       </c>
       <c r="F6">
-        <v>1.160293540082762</v>
+        <v>2.06115716650919</v>
       </c>
       <c r="G6">
-        <v>0.2286159058960493</v>
+        <v>0.4646293087253497</v>
       </c>
       <c r="H6">
-        <v>0.2509064986051683</v>
+        <v>0.6335325266417513</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02885630286023044</v>
+        <v>0.04486933291460993</v>
       </c>
       <c r="K6">
-        <v>0.6467939810508199</v>
+        <v>0.1956696765995787</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5021088911221909</v>
+        <v>0.3579061010055611</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9574859983051738</v>
+        <v>2.154018258272032</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6493112831532528</v>
+        <v>0.2119018982236867</v>
       </c>
       <c r="C7">
-        <v>0.1047682557802503</v>
+        <v>0.06533822366652942</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4083043227310981</v>
+        <v>0.5467030003954392</v>
       </c>
       <c r="F7">
-        <v>1.184655447691142</v>
+        <v>2.062444599962888</v>
       </c>
       <c r="G7">
-        <v>0.2271486361590931</v>
+        <v>0.462779676485134</v>
       </c>
       <c r="H7">
-        <v>0.2484214317606757</v>
+        <v>0.6315482070281107</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02876837811337651</v>
+        <v>0.04481848424526547</v>
       </c>
       <c r="K7">
-        <v>0.6756509294421846</v>
+        <v>0.2051111328900674</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5265068881491288</v>
+        <v>0.3644784375338901</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9492767661762826</v>
+        <v>2.146013690461942</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7810524679380251</v>
+        <v>0.2535791398760523</v>
       </c>
       <c r="C8">
-        <v>0.1139659604049825</v>
+        <v>0.06853002588876222</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4725135160691423</v>
+        <v>0.5595577634227169</v>
       </c>
       <c r="F8">
-        <v>1.296961097607166</v>
+        <v>2.070697418761767</v>
       </c>
       <c r="G8">
-        <v>0.2222390834862935</v>
+        <v>0.4553588885072557</v>
       </c>
       <c r="H8">
-        <v>0.2384515143626373</v>
+        <v>0.6233920884511903</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02842372765973522</v>
+        <v>0.04461780417199179</v>
       </c>
       <c r="K8">
-        <v>0.8027791235172685</v>
+        <v>0.2465846230229261</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6347293385075545</v>
+        <v>0.3937609092317516</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9184375148021928</v>
+        <v>2.113502514398675</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.03950898553461</v>
+        <v>0.3349062129612435</v>
       </c>
       <c r="C9">
-        <v>0.1321659271185354</v>
+        <v>0.07479216954615708</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.6029221932906523</v>
+        <v>0.5868266450252548</v>
       </c>
       <c r="F9">
-        <v>1.536790061567316</v>
+        <v>2.096125596680082</v>
       </c>
       <c r="G9">
-        <v>0.2188021407684531</v>
+        <v>0.4434779939266846</v>
       </c>
       <c r="H9">
-        <v>0.2227231451665759</v>
+        <v>0.6095537205753701</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02790841784127984</v>
+        <v>0.04430896245136928</v>
       </c>
       <c r="K9">
-        <v>1.051750200319418</v>
+        <v>0.3272013342665332</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.849670199988239</v>
+        <v>0.4521745746135437</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.8790276214216988</v>
+        <v>2.059864243709299</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.229986554402927</v>
+        <v>0.3943917719728063</v>
       </c>
       <c r="C10">
-        <v>0.1456708413740699</v>
+        <v>0.07939213296144487</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.7022143082112109</v>
+        <v>0.6081170759557324</v>
       </c>
       <c r="F10">
-        <v>1.727324727768575</v>
+        <v>2.12045188888753</v>
       </c>
       <c r="G10">
-        <v>0.220616734411351</v>
+        <v>0.4363842403982616</v>
       </c>
       <c r="H10">
-        <v>0.21373996675716</v>
+        <v>0.6006992173518242</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02763247998948337</v>
+        <v>0.04413324813570618</v>
       </c>
       <c r="K10">
-        <v>1.234935640917769</v>
+        <v>0.3859752718024936</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.009980333282954</v>
+        <v>0.4956865967892767</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8646227620739921</v>
+        <v>2.026634219022625</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.316893326225937</v>
+        <v>0.4213916910273952</v>
       </c>
       <c r="C11">
-        <v>0.1518518157598123</v>
+        <v>0.08148406107864048</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.748318744154318</v>
+        <v>0.6180754916050546</v>
       </c>
       <c r="F11">
-        <v>1.817685680172886</v>
+        <v>2.132746334632387</v>
       </c>
       <c r="G11">
-        <v>0.2225182870942319</v>
+        <v>0.4335136019092616</v>
       </c>
       <c r="H11">
-        <v>0.2102691513943569</v>
+        <v>0.5969557351015524</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0275303697685203</v>
+        <v>0.04406433556560962</v>
       </c>
       <c r="K11">
-        <v>1.318442085161877</v>
+        <v>0.412610207403219</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.083606318305499</v>
+        <v>0.5156091276955124</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.8616326031595065</v>
+        <v>2.012860911190032</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.349850587422083</v>
+        <v>0.4316067174264901</v>
       </c>
       <c r="C12">
-        <v>0.1541985055002897</v>
+        <v>0.0822760768187436</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7659277879633493</v>
+        <v>0.6218857319189937</v>
       </c>
       <c r="F12">
-        <v>1.85248398463709</v>
+        <v>2.137578617892672</v>
       </c>
       <c r="G12">
-        <v>0.2234050610207916</v>
+        <v>0.4324779267023615</v>
       </c>
       <c r="H12">
-        <v>0.2090485258175789</v>
+        <v>0.5955790630197342</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02749517108468602</v>
+        <v>0.04403981739016238</v>
       </c>
       <c r="K12">
-        <v>1.350098677487068</v>
+        <v>0.4226810903254261</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.111602888343882</v>
+        <v>0.5231715451259475</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.861048785925405</v>
+        <v>2.007838683217471</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.342750360729724</v>
+        <v>0.4294071495960168</v>
       </c>
       <c r="C13">
-        <v>0.153692821429857</v>
+        <v>0.08210550981951314</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.7621284177104997</v>
+        <v>0.6210633863714463</v>
       </c>
       <c r="F13">
-        <v>1.844962880744689</v>
+        <v>2.136530042714895</v>
       </c>
       <c r="G13">
-        <v>0.2232064654618142</v>
+        <v>0.4326986909657577</v>
       </c>
       <c r="H13">
-        <v>0.2093071562152105</v>
+        <v>0.5958737348529084</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02750259582144388</v>
+        <v>0.0440450277725084</v>
       </c>
       <c r="K13">
-        <v>1.343279170947028</v>
+        <v>0.4205128301776426</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.105567909787958</v>
+        <v>0.521542039406782</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.8611495248512711</v>
+        <v>2.008911702887559</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.31960372387033</v>
+        <v>0.4222322762189492</v>
       </c>
       <c r="C14">
-        <v>0.1520447531351579</v>
+        <v>0.08154922409721621</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.7497643443375068</v>
+        <v>0.6183881771952997</v>
       </c>
       <c r="F14">
-        <v>1.820536619116879</v>
+        <v>2.133140349195685</v>
       </c>
       <c r="G14">
-        <v>0.2225878303002773</v>
+        <v>0.433427365940048</v>
       </c>
       <c r="H14">
-        <v>0.2101668211466432</v>
+        <v>0.5968416557173128</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02752740384086572</v>
+        <v>0.04406228686625724</v>
       </c>
       <c r="K14">
-        <v>1.321045743746765</v>
+        <v>0.4134390527040068</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.085907195976262</v>
+        <v>0.5162309296515843</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.8615733636477358</v>
+        <v>2.012443851381434</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.305432258729695</v>
+        <v>0.4178362364794168</v>
       </c>
       <c r="C15">
-        <v>0.151036078205621</v>
+        <v>0.08120846136456805</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.7422110521190746</v>
+        <v>0.6167546370973298</v>
       </c>
       <c r="F15">
-        <v>1.805652000652458</v>
+        <v>2.131087068704488</v>
       </c>
       <c r="G15">
-        <v>0.2222309758756822</v>
+        <v>0.4338803946039178</v>
       </c>
       <c r="H15">
-        <v>0.2107057520374411</v>
+        <v>0.5974398619146868</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02754305424685377</v>
+        <v>0.04407306378451104</v>
       </c>
       <c r="K15">
-        <v>1.307431914601977</v>
+        <v>0.4091041646325948</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.073880023819761</v>
+        <v>0.5129800806488021</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.8619055222329308</v>
+        <v>2.014632592075358</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.224313056511988</v>
+        <v>0.3926259997705586</v>
       </c>
       <c r="C16">
-        <v>0.1452677131914299</v>
+        <v>0.07925540269033604</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6992214238246532</v>
+        <v>0.6074717613158782</v>
       </c>
       <c r="F16">
-        <v>1.721497832673165</v>
+        <v>2.119673135770938</v>
       </c>
       <c r="G16">
-        <v>0.2205151211854144</v>
+        <v>0.4365790251919535</v>
       </c>
       <c r="H16">
-        <v>0.2139796152307909</v>
+        <v>0.6009495867633063</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.02763963281188886</v>
+        <v>0.04413797287896593</v>
       </c>
       <c r="K16">
-        <v>1.229482598418855</v>
+        <v>0.384232521915294</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.005184074162656</v>
+        <v>0.4943871749426805</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.864892904526755</v>
+        <v>2.027561389141894</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.174622260606583</v>
+        <v>0.3771444650262481</v>
       </c>
       <c r="C17">
-        <v>0.1417390941179519</v>
+        <v>0.07805706101929388</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6730991986603243</v>
+        <v>0.6018469469708521</v>
       </c>
       <c r="F17">
-        <v>1.67085081897622</v>
+        <v>2.112985664998931</v>
       </c>
       <c r="G17">
-        <v>0.2197463717582409</v>
+        <v>0.4383259098841776</v>
       </c>
       <c r="H17">
-        <v>0.2161492801566212</v>
+        <v>0.6031755474983385</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02770494785992739</v>
+        <v>0.04418061000967022</v>
       </c>
       <c r="K17">
-        <v>1.18171438340201</v>
+        <v>0.3689481359554065</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9632311943201941</v>
+        <v>0.4830137642598729</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.8676630494580024</v>
+        <v>2.035837008103613</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.146064997762551</v>
+        <v>0.3682342487029757</v>
       </c>
       <c r="C18">
-        <v>0.1397130126432273</v>
+        <v>0.07736775213091107</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.6581614726427034</v>
+        <v>0.5986374317034517</v>
       </c>
       <c r="F18">
-        <v>1.642063680112742</v>
+        <v>2.10925482055309</v>
       </c>
       <c r="G18">
-        <v>0.2194047321788659</v>
+        <v>0.4393642048834039</v>
       </c>
       <c r="H18">
-        <v>0.2174548355847818</v>
+        <v>0.6044826376472017</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02774471288665481</v>
+        <v>0.04420617151534678</v>
       </c>
       <c r="K18">
-        <v>1.154255184678902</v>
+        <v>0.3601474303827104</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.9391659192163004</v>
+        <v>0.4764842115490566</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8695893959053791</v>
+        <v>2.040723336942975</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.136399739456522</v>
+        <v>0.3652164503007782</v>
       </c>
       <c r="C19">
-        <v>0.1390275949184883</v>
+        <v>0.07713435656314971</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.6531183134958667</v>
+        <v>0.5975551668750541</v>
       </c>
       <c r="F19">
-        <v>1.632374396515857</v>
+        <v>2.108011476666533</v>
       </c>
       <c r="G19">
-        <v>0.2193059725848201</v>
+        <v>0.4397215090677093</v>
       </c>
       <c r="H19">
-        <v>0.2179066190310408</v>
+        <v>0.6049297949100136</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02775855109033643</v>
+        <v>0.0442150046590104</v>
       </c>
       <c r="K19">
-        <v>1.144960412602643</v>
+        <v>0.3571660433196939</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.9310285308111972</v>
+        <v>0.4742755106425847</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.8702977587612679</v>
+        <v>2.042399466879701</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.179909417703868</v>
+        <v>0.3787930894614817</v>
       </c>
       <c r="C20">
-        <v>0.1421143559160782</v>
+        <v>0.07818463263097897</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6758708310181163</v>
+        <v>0.6024430558725555</v>
       </c>
       <c r="F20">
-        <v>1.676206355535811</v>
+        <v>2.113685592160948</v>
       </c>
       <c r="G20">
-        <v>0.219817718421524</v>
+        <v>0.438136479520324</v>
       </c>
       <c r="H20">
-        <v>0.2159123157069018</v>
+        <v>0.6029358189482181</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02769776681202174</v>
+        <v>0.04417596386318223</v>
       </c>
       <c r="K20">
-        <v>1.186797688653286</v>
+        <v>0.3705761755383321</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9676903244995287</v>
+        <v>0.4842232299051901</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8673334407774718</v>
+        <v>2.034942969206554</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.326401073908073</v>
+        <v>0.4243399662729246</v>
       </c>
       <c r="C21">
-        <v>0.1525286596870501</v>
+        <v>0.08171262332518836</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.7533917621965998</v>
+        <v>0.6191728877349192</v>
       </c>
       <c r="F21">
-        <v>1.827695026108714</v>
+        <v>2.134131190170663</v>
       </c>
       <c r="G21">
-        <v>0.2227649150358815</v>
+        <v>0.4332119411379978</v>
       </c>
       <c r="H21">
-        <v>0.2099117309236149</v>
+        <v>0.5965562438196343</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02752002215938276</v>
+        <v>0.04405717469620285</v>
       </c>
       <c r="K21">
-        <v>1.327575224793463</v>
+        <v>0.4155172094236264</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.09167874773145</v>
+        <v>0.5177904402685556</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.8614336855569746</v>
+        <v>2.011401122070666</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.422424469504818</v>
+        <v>0.4540532601330654</v>
       </c>
       <c r="C22">
-        <v>0.159370862578001</v>
+        <v>0.08401745405038241</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.8049403921860403</v>
+        <v>0.6303352695513098</v>
       </c>
       <c r="F22">
-        <v>1.930111868255068</v>
+        <v>2.148523190698398</v>
       </c>
       <c r="G22">
-        <v>0.225668856515199</v>
+        <v>0.4302929738868002</v>
       </c>
       <c r="H22">
-        <v>0.2065387919026804</v>
+        <v>0.5926252374063878</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02742412289228646</v>
+        <v>0.04398873076637422</v>
       </c>
       <c r="K22">
-        <v>1.419787566833008</v>
+        <v>0.4447999737770942</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.17339651144944</v>
+        <v>0.5398344148196514</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.8607934606348522</v>
+        <v>1.997142718542278</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.371145432944132</v>
+        <v>0.4381998676004457</v>
       </c>
       <c r="C23">
-        <v>0.1557155256351592</v>
+        <v>0.082787426981767</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7773414980263169</v>
+        <v>0.6243568225631577</v>
       </c>
       <c r="F23">
-        <v>1.875120335988314</v>
+        <v>2.140747693674001</v>
       </c>
       <c r="G23">
-        <v>0.2240253375821197</v>
+        <v>0.431823433891573</v>
       </c>
       <c r="H23">
-        <v>0.208286979916025</v>
+        <v>0.5947014757540998</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02747341659330615</v>
+        <v>0.04402442192577105</v>
       </c>
       <c r="K23">
-        <v>1.3705499399357</v>
+        <v>0.4291795260426738</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.129714223235837</v>
+        <v>0.5280595495571418</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.8608283316488325</v>
+        <v>2.004649435022415</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.177519061631784</v>
+        <v>0.3780477764501882</v>
       </c>
       <c r="C24">
-        <v>0.1419446921080976</v>
+        <v>0.07812695864262764</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6746175271189827</v>
+        <v>0.6021734794461366</v>
       </c>
       <c r="F24">
-        <v>1.673784091789798</v>
+        <v>2.113368800388457</v>
       </c>
       <c r="G24">
-        <v>0.2197851510007993</v>
+        <v>0.4382220151282894</v>
       </c>
       <c r="H24">
-        <v>0.2160192664840892</v>
+        <v>0.6030441150133896</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02770100647356699</v>
+        <v>0.0441780611183944</v>
       </c>
       <c r="K24">
-        <v>1.184499516511181</v>
+        <v>0.3698401808774179</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9656741847101742</v>
+        <v>0.4836764018920121</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8674814200027186</v>
+        <v>2.035346763738332</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.969525992984245</v>
+        <v>0.3129502306972256</v>
       </c>
       <c r="C25">
-        <v>0.127221537141665</v>
+        <v>0.07309804842563494</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5670886272859903</v>
+        <v>0.5792291053882579</v>
       </c>
       <c r="F25">
-        <v>1.46957517450457</v>
+        <v>2.088256034321262</v>
       </c>
       <c r="G25">
-        <v>0.2190128314224253</v>
+        <v>0.4464054232406411</v>
       </c>
       <c r="H25">
-        <v>0.2265447538791392</v>
+        <v>0.6130667501616074</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02803015812583531</v>
+        <v>0.04438349104491124</v>
       </c>
       <c r="K25">
-        <v>0.9843858747239267</v>
+        <v>0.3054708247636029</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.791159122002675</v>
+        <v>0.4362669390882417</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.887263802255319</v>
+        <v>2.073290685977142</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_75/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_75/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2648451569472172</v>
+        <v>0.8167372573271052</v>
       </c>
       <c r="C2">
-        <v>0.06939515048310341</v>
+        <v>0.1164679650572253</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5631802312988512</v>
+        <v>0.49018943679188</v>
       </c>
       <c r="F2">
-        <v>2.073558812778955</v>
+        <v>1.328633487492951</v>
       </c>
       <c r="G2">
-        <v>0.4535287523932894</v>
+        <v>0.2213079704880911</v>
       </c>
       <c r="H2">
-        <v>0.621328140970526</v>
+        <v>0.2360003849858501</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04456917779960357</v>
+        <v>0.02834104194764819</v>
       </c>
       <c r="K2">
-        <v>0.2577744102338499</v>
+        <v>0.8371862590209673</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4017623662331715</v>
+        <v>0.6642104732377021</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.105377801788336</v>
+        <v>0.91144743506905</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2321411886632347</v>
+        <v>0.7132382007035289</v>
       </c>
       <c r="C3">
-        <v>0.06688639323184731</v>
+        <v>0.1092230924455038</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5528305900229853</v>
+        <v>0.439246999510182</v>
       </c>
       <c r="F3">
-        <v>2.065961215728322</v>
+        <v>1.238201169144304</v>
       </c>
       <c r="G3">
-        <v>0.4590390420931456</v>
+        <v>0.2244633333859909</v>
       </c>
       <c r="H3">
-        <v>0.6274776546296081</v>
+        <v>0.2433929234553247</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04471664244262641</v>
+        <v>0.02859290482337329</v>
       </c>
       <c r="K3">
-        <v>0.2252679536051119</v>
+        <v>0.7373608124631374</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3786317057845139</v>
+        <v>0.5788954379989377</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.129708494002685</v>
+        <v>0.9332739666254213</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.212012630724729</v>
+        <v>0.6496608146234735</v>
       </c>
       <c r="C4">
-        <v>0.06534668349953421</v>
+        <v>0.1047925661391744</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5467358778822273</v>
+        <v>0.4084723405928088</v>
       </c>
       <c r="F4">
-        <v>2.062461071519834</v>
+        <v>1.184943034625135</v>
       </c>
       <c r="G4">
-        <v>0.4627584387925623</v>
+        <v>0.2271322984297868</v>
       </c>
       <c r="H4">
-        <v>0.6315253166097463</v>
+        <v>0.248392887687892</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04481790224832416</v>
+        <v>0.02876737278999464</v>
       </c>
       <c r="K4">
-        <v>0.2052215070626033</v>
+        <v>0.6759884559818943</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3645554958694888</v>
+        <v>0.5267926489185726</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.145921564995248</v>
+        <v>0.9491835790141181</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2037984957325136</v>
+        <v>0.6237385561983331</v>
       </c>
       <c r="C5">
-        <v>0.06471947030497205</v>
+        <v>0.1029911572545217</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.5443177112772162</v>
+        <v>0.3960480113582889</v>
       </c>
       <c r="F5">
-        <v>2.061327672639166</v>
+        <v>1.163776715092212</v>
       </c>
       <c r="G5">
-        <v>0.4643585217900252</v>
+        <v>0.2283957277166664</v>
       </c>
       <c r="H5">
-        <v>0.6332431509224179</v>
+        <v>0.2505428153014151</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04486186884625099</v>
+        <v>0.02884338595912794</v>
       </c>
       <c r="K5">
-        <v>0.1970309852239041</v>
+        <v>0.6509528532473468</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3588513314354103</v>
+        <v>0.5056210360264402</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.152848683791177</v>
+        <v>0.9562729151755747</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2024338609564325</v>
+        <v>0.6194331518163949</v>
       </c>
       <c r="C6">
-        <v>0.06461533777898154</v>
+        <v>0.1026922685374032</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.5439201341323709</v>
+        <v>0.3939917153814321</v>
       </c>
       <c r="F6">
-        <v>2.06115716650919</v>
+        <v>1.160293540082762</v>
       </c>
       <c r="G6">
-        <v>0.4646293087253497</v>
+        <v>0.2286159058960493</v>
       </c>
       <c r="H6">
-        <v>0.6335325266417513</v>
+        <v>0.2509064986051683</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.04486933291460993</v>
+        <v>0.02885630286023577</v>
       </c>
       <c r="K6">
-        <v>0.1956696765995787</v>
+        <v>0.6467939810507062</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3579061010055611</v>
+        <v>0.5021088911222051</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.154018258272032</v>
+        <v>0.9574859983051738</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2119018982236867</v>
+        <v>0.6493112831532528</v>
       </c>
       <c r="C7">
-        <v>0.06533822366652942</v>
+        <v>0.1047682557802503</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.5467030003954392</v>
+        <v>0.4083043227310696</v>
       </c>
       <c r="F7">
-        <v>2.062444599962888</v>
+        <v>1.184655447691142</v>
       </c>
       <c r="G7">
-        <v>0.462779676485134</v>
+        <v>0.2271486361590931</v>
       </c>
       <c r="H7">
-        <v>0.6315482070281107</v>
+        <v>0.2484214317605691</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.04481848424526547</v>
+        <v>0.02876837811343336</v>
       </c>
       <c r="K7">
-        <v>0.2051111328900674</v>
+        <v>0.6756509294421846</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3644784375338901</v>
+        <v>0.5265068881491288</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.146013690461942</v>
+        <v>0.9492767661762826</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2535791398760523</v>
+        <v>0.7810524679377693</v>
       </c>
       <c r="C8">
-        <v>0.06853002588876222</v>
+        <v>0.1139659604047978</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.5595577634227169</v>
+        <v>0.4725135160691636</v>
       </c>
       <c r="F8">
-        <v>2.070697418761767</v>
+        <v>1.296961097607166</v>
       </c>
       <c r="G8">
-        <v>0.4553588885072557</v>
+        <v>0.2222390834862438</v>
       </c>
       <c r="H8">
-        <v>0.6233920884511903</v>
+        <v>0.2384515143626444</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04461780417199179</v>
+        <v>0.02842372765980095</v>
       </c>
       <c r="K8">
-        <v>0.2465846230229261</v>
+        <v>0.8027791235172828</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3937609092317516</v>
+        <v>0.6347293385075616</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.113502514398675</v>
+        <v>0.918437514802207</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3349062129612435</v>
+        <v>1.039508985534582</v>
       </c>
       <c r="C9">
-        <v>0.07479216954615708</v>
+        <v>0.1321659271185922</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5868266450252548</v>
+        <v>0.6029221932906523</v>
       </c>
       <c r="F9">
-        <v>2.096125596680082</v>
+        <v>1.536790061567316</v>
       </c>
       <c r="G9">
-        <v>0.4434779939266846</v>
+        <v>0.2188021407684104</v>
       </c>
       <c r="H9">
-        <v>0.6095537205753701</v>
+        <v>0.2227231451666967</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04430896245136928</v>
+        <v>0.02790841784128517</v>
       </c>
       <c r="K9">
-        <v>0.3272013342665332</v>
+        <v>1.051750200319418</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4521745746135437</v>
+        <v>0.8496701999882461</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.059864243709299</v>
+        <v>0.879027621421713</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3943917719728063</v>
+        <v>1.229986554402956</v>
       </c>
       <c r="C10">
-        <v>0.07939213296144487</v>
+        <v>0.1456708413741126</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6081170759557324</v>
+        <v>0.7022143082112251</v>
       </c>
       <c r="F10">
-        <v>2.12045188888753</v>
+        <v>1.72732472776859</v>
       </c>
       <c r="G10">
-        <v>0.4363842403982616</v>
+        <v>0.2206167344112515</v>
       </c>
       <c r="H10">
-        <v>0.6006992173518242</v>
+        <v>0.2137399667571671</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04413324813570618</v>
+        <v>0.02763247998943541</v>
       </c>
       <c r="K10">
-        <v>0.3859752718024936</v>
+        <v>1.23493564091774</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4956865967892767</v>
+        <v>1.009980333282925</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.026634219022625</v>
+        <v>0.8646227620740063</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4213916910273952</v>
+        <v>1.316893326225795</v>
       </c>
       <c r="C11">
-        <v>0.08148406107864048</v>
+        <v>0.1518518157600681</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6180754916050546</v>
+        <v>0.7483187441542754</v>
       </c>
       <c r="F11">
-        <v>2.132746334632387</v>
+        <v>1.817685680172886</v>
       </c>
       <c r="G11">
-        <v>0.4335136019092616</v>
+        <v>0.222518287094239</v>
       </c>
       <c r="H11">
-        <v>0.5969557351015524</v>
+        <v>0.2102691513943498</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04406433556560962</v>
+        <v>0.02753036976845813</v>
       </c>
       <c r="K11">
-        <v>0.412610207403219</v>
+        <v>1.31844208516182</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5156091276955124</v>
+        <v>1.083606318305499</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.012860911190032</v>
+        <v>0.8616326031595349</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4316067174264901</v>
+        <v>1.349850587422054</v>
       </c>
       <c r="C12">
-        <v>0.0822760768187436</v>
+        <v>0.1541985055005028</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6218857319189937</v>
+        <v>0.7659277879633493</v>
       </c>
       <c r="F12">
-        <v>2.137578617892672</v>
+        <v>1.85248398463709</v>
       </c>
       <c r="G12">
-        <v>0.4324779267023615</v>
+        <v>0.2234050610207845</v>
       </c>
       <c r="H12">
-        <v>0.5955790630197342</v>
+        <v>0.2090485258175789</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04403981739016238</v>
+        <v>0.02749517108473398</v>
       </c>
       <c r="K12">
-        <v>0.4226810903254261</v>
+        <v>1.350098677487068</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5231715451259475</v>
+        <v>1.111602888343874</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.007838683217471</v>
+        <v>0.8610487859253908</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4294071495960168</v>
+        <v>1.342750360729696</v>
       </c>
       <c r="C13">
-        <v>0.08210550981951314</v>
+        <v>0.1536928214295443</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6210633863714463</v>
+        <v>0.7621284177104997</v>
       </c>
       <c r="F13">
-        <v>2.136530042714895</v>
+        <v>1.844962880744689</v>
       </c>
       <c r="G13">
-        <v>0.4326986909657577</v>
+        <v>0.2232064654618711</v>
       </c>
       <c r="H13">
-        <v>0.5958737348529084</v>
+        <v>0.2093071562152105</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0440450277725084</v>
+        <v>0.02750259582152736</v>
       </c>
       <c r="K13">
-        <v>0.4205128301776426</v>
+        <v>1.343279170947056</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.521542039406782</v>
+        <v>1.105567909787958</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.008911702887559</v>
+        <v>0.8611495248512711</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4222322762189492</v>
+        <v>1.319603723870244</v>
       </c>
       <c r="C14">
-        <v>0.08154922409721621</v>
+        <v>0.1520447531351721</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6183881771952997</v>
+        <v>0.7497643443375352</v>
       </c>
       <c r="F14">
-        <v>2.133140349195685</v>
+        <v>1.820536619116893</v>
       </c>
       <c r="G14">
-        <v>0.433427365940048</v>
+        <v>0.2225878303002773</v>
       </c>
       <c r="H14">
-        <v>0.5968416557173128</v>
+        <v>0.2101668211466432</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04406228686625724</v>
+        <v>0.02752740384087105</v>
       </c>
       <c r="K14">
-        <v>0.4134390527040068</v>
+        <v>1.321045743746652</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5162309296515843</v>
+        <v>1.085907195976247</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.012443851381434</v>
+        <v>0.8615733636477216</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4178362364794168</v>
+        <v>1.305432258729553</v>
       </c>
       <c r="C15">
-        <v>0.08120846136456805</v>
+        <v>0.1510360782050952</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6167546370973298</v>
+        <v>0.7422110521190746</v>
       </c>
       <c r="F15">
-        <v>2.131087068704488</v>
+        <v>1.805652000652458</v>
       </c>
       <c r="G15">
-        <v>0.4338803946039178</v>
+        <v>0.222230975875739</v>
       </c>
       <c r="H15">
-        <v>0.5974398619146868</v>
+        <v>0.210705752037434</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.04407306378451104</v>
+        <v>0.02754305424689285</v>
       </c>
       <c r="K15">
-        <v>0.4091041646325948</v>
+        <v>1.307431914601864</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5129800806488021</v>
+        <v>1.073880023819754</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.014632592075358</v>
+        <v>0.861905522232874</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3926259997705586</v>
+        <v>1.224313056512017</v>
       </c>
       <c r="C16">
-        <v>0.07925540269033604</v>
+        <v>0.1452677131918989</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6074717613158782</v>
+        <v>0.6992214238246106</v>
       </c>
       <c r="F16">
-        <v>2.119673135770938</v>
+        <v>1.721497832673165</v>
       </c>
       <c r="G16">
-        <v>0.4365790251919535</v>
+        <v>0.2205151211854002</v>
       </c>
       <c r="H16">
-        <v>0.6009495867633063</v>
+        <v>0.2139796152307909</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04413797287896593</v>
+        <v>0.02763963281189241</v>
       </c>
       <c r="K16">
-        <v>0.384232521915294</v>
+        <v>1.22948259841894</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4943871749426805</v>
+        <v>1.005184074162635</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.027561389141894</v>
+        <v>0.8648929045267408</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3771444650262481</v>
+        <v>1.174622260606554</v>
       </c>
       <c r="C17">
-        <v>0.07805706101929388</v>
+        <v>0.1417390941175825</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6018469469708521</v>
+        <v>0.6730991986603527</v>
       </c>
       <c r="F17">
-        <v>2.112985664998931</v>
+        <v>1.670850818976177</v>
       </c>
       <c r="G17">
-        <v>0.4383259098841776</v>
+        <v>0.2197463717582409</v>
       </c>
       <c r="H17">
-        <v>0.6031755474983385</v>
+        <v>0.2161492801566212</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04418061000967022</v>
+        <v>0.02770494786002153</v>
       </c>
       <c r="K17">
-        <v>0.3689481359554065</v>
+        <v>1.181714383401868</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4830137642598729</v>
+        <v>0.9632311943202225</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.035837008103613</v>
+        <v>0.8676630494579172</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3682342487029757</v>
+        <v>1.146064997762437</v>
       </c>
       <c r="C18">
-        <v>0.07736775213091107</v>
+        <v>0.1397130126429857</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5986374317034517</v>
+        <v>0.6581614726426892</v>
       </c>
       <c r="F18">
-        <v>2.10925482055309</v>
+        <v>1.642063680112742</v>
       </c>
       <c r="G18">
-        <v>0.4393642048834039</v>
+        <v>0.2194047321788588</v>
       </c>
       <c r="H18">
-        <v>0.6044826376472017</v>
+        <v>0.2174548355847676</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04420617151534678</v>
+        <v>0.02774471288666902</v>
       </c>
       <c r="K18">
-        <v>0.3601474303827104</v>
+        <v>1.154255184678959</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4764842115490566</v>
+        <v>0.9391659192163075</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.040723336942975</v>
+        <v>0.8695893959054359</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3652164503007782</v>
+        <v>1.136399739456522</v>
       </c>
       <c r="C19">
-        <v>0.07713435656314971</v>
+        <v>0.139027594918673</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5975551668750541</v>
+        <v>0.6531183134959093</v>
       </c>
       <c r="F19">
-        <v>2.108011476666533</v>
+        <v>1.632374396515885</v>
       </c>
       <c r="G19">
-        <v>0.4397215090677093</v>
+        <v>0.2193059725848059</v>
       </c>
       <c r="H19">
-        <v>0.6049297949100136</v>
+        <v>0.2179066190310337</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0442150046590104</v>
+        <v>0.02775855109027781</v>
       </c>
       <c r="K19">
-        <v>0.3571660433196939</v>
+        <v>1.144960412602558</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4742755106425847</v>
+        <v>0.9310285308111972</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.042399466879701</v>
+        <v>0.8702977587611969</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3787930894614817</v>
+        <v>1.17990941770401</v>
       </c>
       <c r="C20">
-        <v>0.07818463263097897</v>
+        <v>0.1421143559161635</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6024430558725555</v>
+        <v>0.6758708310181305</v>
       </c>
       <c r="F20">
-        <v>2.113685592160948</v>
+        <v>1.676206355535797</v>
       </c>
       <c r="G20">
-        <v>0.438136479520324</v>
+        <v>0.2198177184213819</v>
       </c>
       <c r="H20">
-        <v>0.6029358189482181</v>
+        <v>0.2159123157068947</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04417596386318223</v>
+        <v>0.02769776681201819</v>
       </c>
       <c r="K20">
-        <v>0.3705761755383321</v>
+        <v>1.186797688653456</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4842232299051901</v>
+        <v>0.9676903244995643</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.034942969206554</v>
+        <v>0.8673334407774576</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4243399662729246</v>
+        <v>1.326401073908187</v>
       </c>
       <c r="C21">
-        <v>0.08171262332518836</v>
+        <v>0.1525286596872917</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6191728877349192</v>
+        <v>0.7533917621965713</v>
       </c>
       <c r="F21">
-        <v>2.134131190170663</v>
+        <v>1.827695026108714</v>
       </c>
       <c r="G21">
-        <v>0.4332119411379978</v>
+        <v>0.2227649150358317</v>
       </c>
       <c r="H21">
-        <v>0.5965562438196343</v>
+        <v>0.2099117309236149</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04405717469620285</v>
+        <v>0.02752002215952665</v>
       </c>
       <c r="K21">
-        <v>0.4155172094236264</v>
+        <v>1.32757522479352</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5177904402685556</v>
+        <v>1.091678747731443</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.011401122070666</v>
+        <v>0.8614336855570173</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4540532601330654</v>
+        <v>1.422424469504705</v>
       </c>
       <c r="C22">
-        <v>0.08401745405038241</v>
+        <v>0.1593708625781858</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.6303352695513098</v>
+        <v>0.8049403921860261</v>
       </c>
       <c r="F22">
-        <v>2.148523190698398</v>
+        <v>1.930111868255068</v>
       </c>
       <c r="G22">
-        <v>0.4302929738868002</v>
+        <v>0.2256688565152132</v>
       </c>
       <c r="H22">
-        <v>0.5926252374063878</v>
+        <v>0.2065387919025667</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04398873076637422</v>
+        <v>0.02742412289233975</v>
       </c>
       <c r="K22">
-        <v>0.4447999737770942</v>
+        <v>1.419787566833008</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5398344148196514</v>
+        <v>1.173396511449411</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.997142718542278</v>
+        <v>0.860793460634838</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4381998676004457</v>
+        <v>1.371145432944218</v>
       </c>
       <c r="C23">
-        <v>0.082787426981767</v>
+        <v>0.1557155256351592</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6243568225631577</v>
+        <v>0.7773414980262743</v>
       </c>
       <c r="F23">
-        <v>2.140747693674001</v>
+        <v>1.875120335988314</v>
       </c>
       <c r="G23">
-        <v>0.431823433891573</v>
+        <v>0.2240253375821766</v>
       </c>
       <c r="H23">
-        <v>0.5947014757540998</v>
+        <v>0.2082869799159113</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04402442192577105</v>
+        <v>0.02747341659331504</v>
       </c>
       <c r="K23">
-        <v>0.4291795260426738</v>
+        <v>1.370549939935756</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5280595495571418</v>
+        <v>1.129714223235837</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.004649435022415</v>
+        <v>0.8608283316487757</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3780477764501882</v>
+        <v>1.177519061631642</v>
       </c>
       <c r="C24">
-        <v>0.07812695864262764</v>
+        <v>0.1419446921080265</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6021734794461366</v>
+        <v>0.6746175271189827</v>
       </c>
       <c r="F24">
-        <v>2.113368800388457</v>
+        <v>1.673784091789784</v>
       </c>
       <c r="G24">
-        <v>0.4382220151282894</v>
+        <v>0.2197851510007993</v>
       </c>
       <c r="H24">
-        <v>0.6030441150133896</v>
+        <v>0.2160192664839684</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0441780611183944</v>
+        <v>0.02770100647355989</v>
       </c>
       <c r="K24">
-        <v>0.3698401808774179</v>
+        <v>1.184499516511181</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4836764018920121</v>
+        <v>0.9656741847101884</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.035346763738332</v>
+        <v>0.8674814200026901</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3129502306972256</v>
+        <v>0.9695259929842734</v>
       </c>
       <c r="C25">
-        <v>0.07309804842563494</v>
+        <v>0.127221537141665</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5792291053882579</v>
+        <v>0.567088627285969</v>
       </c>
       <c r="F25">
-        <v>2.088256034321262</v>
+        <v>1.469575174504612</v>
       </c>
       <c r="G25">
-        <v>0.4464054232406411</v>
+        <v>0.2190128314224395</v>
       </c>
       <c r="H25">
-        <v>0.6130667501616074</v>
+        <v>0.2265447538791321</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04438349104491124</v>
+        <v>0.02803015812579446</v>
       </c>
       <c r="K25">
-        <v>0.3054708247636029</v>
+        <v>0.9843858747239551</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4362669390882417</v>
+        <v>0.7911591220026892</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.073290685977142</v>
+        <v>0.8872638022553332</v>
       </c>
     </row>
   </sheetData>
